--- a/Lab2/Lab2_Data.xlsx
+++ b/Lab2/Lab2_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fliang/Labs/ECE358/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10782F60-4233-654A-9B54-FED264E5676B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB00986E-65E5-B743-A7F9-299D18169E34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{CD3D1FDA-1D36-744E-9399-F59D5B515E4C}"/>
   </bookViews>

--- a/Lab2/Lab2_Data.xlsx
+++ b/Lab2/Lab2_Data.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fliang/Labs/ECE358/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB00986E-65E5-B743-A7F9-299D18169E34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8815B93B-5155-7945-935D-64A1663166E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{CD3D1FDA-1D36-744E-9399-F59D5B515E4C}"/>
+    <workbookView xWindow="10060" yWindow="460" windowWidth="18740" windowHeight="15940" xr2:uid="{CD3D1FDA-1D36-744E-9399-F59D5B515E4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$4:$B$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$4:$C$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$4:$D$8</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -50,16 +56,21 @@
   <si>
     <t>A = 20</t>
   </si>
+  <si>
+    <t>Persistent CSMA/CD Protol Data</t>
+  </si>
+  <si>
+    <t>Nonpersistent CSMA/CD Protol Data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +90,11 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,7 +231,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,12 +242,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -243,14 +252,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +393,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -404,24 +417,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.930867</c:v>
+                  <c:v>0.92905700000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74765800000000004</c:v>
+                  <c:v>0.74491799999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53979100000000002</c:v>
+                  <c:v>0.50956400000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39324300000000001</c:v>
+                  <c:v>0.290933</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32369900000000001</c:v>
+                  <c:v>0.178066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -465,7 +478,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -489,24 +502,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.86740202034199998</c:v>
+                  <c:v>0.85902100000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57254355898300002</c:v>
+                  <c:v>0.54537800000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39063772893699999</c:v>
+                  <c:v>0.24919535000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33908849016600001</c:v>
+                  <c:v>0.18058537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32176100000000002</c:v>
+                  <c:v>0.1585568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,7 +563,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -574,24 +587,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:f>Sheet1!$D$4:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.60117900000000002</c:v>
+                  <c:v>0.54997826999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40667399999999998</c:v>
+                  <c:v>0.27536500000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40245900000000001</c:v>
+                  <c:v>0.213924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40979500000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.416408</c:v>
+                  <c:v>0.18065899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,7 +1056,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1070,24 +1080,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:f>Sheet1!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.20993100000000001</c:v>
+                  <c:v>0.21030599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.419902</c:v>
+                  <c:v>0.41886499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62951900000000005</c:v>
+                  <c:v>0.63069799999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83446500000000001</c:v>
+                  <c:v>0.81570299999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.024054</c:v>
+                  <c:v>0.88769500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,7 +1141,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1155,24 +1165,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:f>Sheet1!$F$4:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.29984699999999997</c:v>
+                  <c:v>0.29973450000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6013425</c:v>
+                  <c:v>0.60034799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8940555</c:v>
+                  <c:v>0.84674550000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1673929999999999</c:v>
+                  <c:v>0.90270600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1.425468</c:v>
+                  <c:v>0.91107899999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,7 +1226,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1240,24 +1250,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$7</c:f>
+              <c:f>Sheet1!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.60064399999999996</c:v>
+                  <c:v>0.59989700000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.187208</c:v>
+                  <c:v>0.896756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.750551</c:v>
+                  <c:v>0.89646499999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3038919999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.852811</c:v>
+                  <c:v>0.903443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,6 +1273,1277 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6955-B448-8D3F-DE7EF2D5D3FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2069253103"/>
+        <c:axId val="2086958287"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2069253103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086958287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086958287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Mbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2069253103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.89751074196665359"/>
+          <c:y val="0.4143350231905944"/>
+          <c:w val="9.2045393803581343E-2"/>
+          <c:h val="0.13869960090605113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1-Nonpersistent CSMA/CD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Efficiency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A = 7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99992899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99944299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99872700000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99747699999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99615200000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85B4-F641-9E90-95458DAA926B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>A = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85B4-F641-9E90-95458DAA926B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>A = 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-85B4-F641-9E90-95458DAA926B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2069253103"/>
+        <c:axId val="2086958287"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2069253103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086958287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086958287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2069253103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.89751074196665359"/>
+          <c:y val="0.4143350231905944"/>
+          <c:w val="9.2045393803581343E-2"/>
+          <c:h val="0.13869960090605113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1-Nonpersistent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CSMA/CD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Throughput</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A = 7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$37:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.210309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.420018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63061500000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84013499999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.050063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0327-074D-B978-6F291E497199}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>A = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$37:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0327-074D-B978-6F291E497199}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>A = 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$37:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0327-074D-B978-6F291E497199}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1677,6 +2955,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2181,6 +3539,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2689,13 +5053,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2725,13 +5089,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2754,6 +5118,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A900D1-1438-E34B-84B1-996195620ADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960FDE45-4DC1-A041-ADE7-CBE70E080D2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3059,13 +5499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8782A8-5F07-BD40-AC8C-8932D019AA2B}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -3076,166 +5516,284 @@
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" ht="37" customHeight="1" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+    <row r="3" spans="1:11" ht="22" thickBot="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="4" spans="1:11" ht="21">
+      <c r="A4" s="10">
         <v>20</v>
       </c>
-      <c r="B3" s="16">
-        <v>0.930867</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0.86740202034199998</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.60117900000000002</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.20993100000000001</v>
-      </c>
-      <c r="F3" s="20">
-        <v>0.29984699999999997</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0.60064399999999996</v>
+      <c r="B4" s="13">
+        <v>0.92905700000000002</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.85902100000000003</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.54997826999999999</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.21030599999999999</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.29973450000000001</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.59989700000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="5" spans="1:11" ht="21">
+      <c r="A5" s="10">
         <v>40</v>
       </c>
-      <c r="B4" s="9">
-        <v>0.74765800000000004</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0.57254355898300002</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.40667399999999998</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.419902</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0.6013425</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1.187208</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="B5" s="8">
+        <v>0.74491799999999997</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.54537800000000003</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.27536500000000003</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.41886499999999999</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.60034799999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.896756</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
-    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="6" spans="1:11" ht="21">
+      <c r="A6" s="10">
         <v>60</v>
       </c>
-      <c r="B5" s="9">
-        <v>0.53979100000000002</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0.39063772893699999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.40245900000000001</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.62951900000000005</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0.8940555</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.750551</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="B6" s="8">
+        <v>0.50956400000000002</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.24919535000000001</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.213924</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.63069799999999998</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.84674550000000004</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.89646499999999996</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
-    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="7" spans="1:11" ht="21">
+      <c r="A7" s="10">
         <v>80</v>
       </c>
-      <c r="B6" s="9">
-        <v>0.39324300000000001</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0.33908849016600001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.40979500000000002</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.83446500000000001</v>
-      </c>
-      <c r="F6" s="19">
-        <v>1.1673929999999999</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2.3038919999999998</v>
-      </c>
-      <c r="J6" s="21"/>
+      <c r="B7" s="8">
+        <v>0.290933</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.18058537</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.18065899999999999</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.81570299999999996</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.90270600000000001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.903443</v>
+      </c>
+      <c r="J7" s="17"/>
     </row>
-    <row r="7" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="8" spans="1:11" ht="22" thickBot="1">
+      <c r="A8" s="4">
         <v>100</v>
       </c>
-      <c r="B7" s="10">
-        <v>0.32369900000000001</v>
-      </c>
-      <c r="C7" s="24">
-        <v>0.32176100000000002</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.416408</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1.024054</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1.425468</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2.852811</v>
-      </c>
-      <c r="J7" s="21"/>
+      <c r="B8" s="9">
+        <v>0.178066</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.1585568</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="9">
+        <v>0.88769500000000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.91107899999999997</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" thickBot="1">
+      <c r="A34" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="21">
+      <c r="A35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="22" thickBot="1">
+      <c r="A36" s="20"/>
+      <c r="B36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="21">
+      <c r="A37" s="10">
+        <v>20</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.99992899999999996</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="13">
+        <v>0.210309</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" ht="21">
+      <c r="A38" s="10">
+        <v>40</v>
+      </c>
+      <c r="B38" s="8">
+        <v>0.99944299999999997</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="8">
+        <v>0.420018</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="21">
+      <c r="A39" s="10">
+        <v>60</v>
+      </c>
+      <c r="B39" s="8">
+        <v>0.99872700000000003</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="8">
+        <v>0.63061500000000004</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="21">
+      <c r="A40" s="10">
+        <v>80</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0.99747699999999995</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="8">
+        <v>0.84013499999999997</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" ht="22" thickBot="1">
+      <c r="A41" s="4">
+        <v>100</v>
+      </c>
+      <c r="B41" s="9">
+        <v>0.99615200000000004</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="9">
+        <v>1.050063</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A35:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Lab2/Lab2_Data.xlsx
+++ b/Lab2/Lab2_Data.xlsx
@@ -8,19 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fliang/Labs/ECE358/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8815B93B-5155-7945-935D-64A1663166E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE61FC-787A-5B4F-9DBE-C84D9C278499}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10060" yWindow="460" windowWidth="18740" windowHeight="15940" xr2:uid="{CD3D1FDA-1D36-744E-9399-F59D5B515E4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$4:$B$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$4:$C$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$4:$D$8</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -602,6 +596,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.18065899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1585009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,6 +1263,9 @@
                 <c:pt idx="3">
                   <c:v>0.903443</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91086800000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1829,6 +1829,21 @@
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.999699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99920100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99815399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99672700000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99470000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1899,6 +1914,21 @@
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99961500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99809899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99322310000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98915900000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2033,7 +2063,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0"/>
+          <c:min val="0.98"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2467,6 +2497,21 @@
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.29943900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60040099999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90180199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.198401</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.4999089999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2537,6 +2582,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.59956699999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1986129999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.801671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.398466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0038809999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5501,8 +5561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8782A8-5F07-BD40-AC8C-8932D019AA2B}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5664,14 +5724,18 @@
       <c r="C8" s="18">
         <v>0.1585568</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18">
+        <v>0.1585009</v>
+      </c>
       <c r="E8" s="9">
         <v>0.88769500000000001</v>
       </c>
       <c r="F8" s="5">
         <v>0.91107899999999997</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6">
+        <v>0.91086800000000001</v>
+      </c>
       <c r="J8" s="17"/>
     </row>
     <row r="34" spans="1:7" ht="30" thickBot="1">
@@ -5722,13 +5786,21 @@
       <c r="B37" s="13">
         <v>0.99992899999999996</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="16">
+        <v>0.999699</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0.99961500000000003</v>
+      </c>
       <c r="E37" s="13">
         <v>0.210309</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="14"/>
+      <c r="F37" s="16">
+        <v>0.29943900000000001</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0.59956699999999996</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="21">
       <c r="A38" s="10">
@@ -5737,13 +5809,21 @@
       <c r="B38" s="8">
         <v>0.99944299999999997</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="C38" s="15">
+        <v>0.99920100000000001</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.99809899999999996</v>
+      </c>
       <c r="E38" s="8">
         <v>0.420018</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="15">
+        <v>0.60040099999999996</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.1986129999999999</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="21">
       <c r="A39" s="10">
@@ -5752,13 +5832,21 @@
       <c r="B39" s="8">
         <v>0.99872700000000003</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="C39" s="15">
+        <v>0.99815399999999999</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0.996147</v>
+      </c>
       <c r="E39" s="8">
         <v>0.63061500000000004</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="3"/>
+      <c r="F39" s="15">
+        <v>0.90180199999999999</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1.801671</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="21">
       <c r="A40" s="10">
@@ -5767,13 +5855,21 @@
       <c r="B40" s="8">
         <v>0.99747699999999995</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="C40" s="15">
+        <v>0.99672700000000003</v>
+      </c>
+      <c r="D40" s="15">
+        <v>0.99322310000000003</v>
+      </c>
       <c r="E40" s="8">
         <v>0.84013499999999997</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="3"/>
+      <c r="F40" s="15">
+        <v>1.198401</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2.398466</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="22" thickBot="1">
       <c r="A41" s="4">
@@ -5782,13 +5878,21 @@
       <c r="B41" s="9">
         <v>0.99615200000000004</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="C41" s="18">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="D41" s="18">
+        <v>0.98915900000000001</v>
+      </c>
       <c r="E41" s="9">
         <v>1.050063</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="6"/>
+      <c r="F41" s="5">
+        <v>1.4999089999999999</v>
+      </c>
+      <c r="G41" s="6">
+        <v>3.0038809999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Lab2/Lab2_Data.xlsx
+++ b/Lab2/Lab2_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fliang/Labs/ECE358/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE61FC-787A-5B4F-9DBE-C84D9C278499}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4320A7AD-A825-F743-AC58-A7EED0F90CE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="460" windowWidth="18740" windowHeight="15940" xr2:uid="{CD3D1FDA-1D36-744E-9399-F59D5B515E4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CD3D1FDA-1D36-744E-9399-F59D5B515E4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,13 +251,15 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1745,19 +1747,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.99992899999999996</c:v>
+                  <c:v>0.99975800000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99944299999999997</c:v>
+                  <c:v>0.99870899999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99872700000000003</c:v>
+                  <c:v>0.99637900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99747699999999995</c:v>
+                  <c:v>0.99230399999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99615200000000004</c:v>
+                  <c:v>0.98779899999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,19 +1832,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.999699</c:v>
+                  <c:v>0.99965000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99920100000000001</c:v>
+                  <c:v>0.99770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99815399999999999</c:v>
+                  <c:v>0.99403799999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99672700000000003</c:v>
+                  <c:v>0.98631400000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99470000000000003</c:v>
+                  <c:v>0.98825499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,19 +1917,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.99961500000000003</c:v>
+                  <c:v>0.99902000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99809899999999996</c:v>
+                  <c:v>0.99745700000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.996147</c:v>
+                  <c:v>0.98608669999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99322310000000003</c:v>
+                  <c:v>0.98931500000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98915900000000001</c:v>
+                  <c:v>0.98313200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,19 +2415,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.210309</c:v>
+                  <c:v>0.210428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.420018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63061500000000004</c:v>
+                  <c:v>0.42010199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000000">
+                  <c:v>0.61995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84013499999999997</c:v>
+                  <c:v>0.78140699999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.050063</c:v>
+                  <c:v>0.90247200000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,19 +2500,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.29943900000000001</c:v>
+                  <c:v>0.29978300000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60040099999999996</c:v>
+                  <c:v>0.59209800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90180199999999999</c:v>
+                  <c:v>0.82397399999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.198401</c:v>
+                  <c:v>0.92222099999999996</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1.4999089999999999</c:v>
+                  <c:v>0.96449300000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2583,19 +2585,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.59956699999999996</c:v>
+                  <c:v>0.59347499999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1986129999999999</c:v>
+                  <c:v>0.81442499999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.801671</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.398466</c:v>
+                  <c:v>0.87388500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000000">
+                  <c:v>0.92217000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0038809999999998</c:v>
+                  <c:v>0.962565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5561,8 +5563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8782A8-5F07-BD40-AC8C-8932D019AA2B}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5577,12 +5579,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -5597,7 +5599,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="22" thickBot="1">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
@@ -5739,12 +5741,12 @@
       <c r="J8" s="17"/>
     </row>
     <row r="34" spans="1:7" ht="30" thickBot="1">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="21">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -5759,7 +5761,7 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="22" thickBot="1">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="10" t="s">
         <v>3</v>
       </c>
@@ -5784,22 +5786,22 @@
         <v>20</v>
       </c>
       <c r="B37" s="13">
-        <v>0.99992899999999996</v>
+        <v>0.99975800000000004</v>
       </c>
       <c r="C37" s="16">
-        <v>0.999699</v>
+        <v>0.99965000000000004</v>
       </c>
       <c r="D37" s="16">
-        <v>0.99961500000000003</v>
+        <v>0.99902000000000002</v>
       </c>
       <c r="E37" s="13">
-        <v>0.210309</v>
+        <v>0.210428</v>
       </c>
       <c r="F37" s="16">
-        <v>0.29943900000000001</v>
+        <v>0.29978300000000002</v>
       </c>
       <c r="G37" s="14">
-        <v>0.59956699999999996</v>
+        <v>0.59347499999999997</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="21">
@@ -5807,22 +5809,22 @@
         <v>40</v>
       </c>
       <c r="B38" s="8">
-        <v>0.99944299999999997</v>
+        <v>0.99870899999999996</v>
       </c>
       <c r="C38" s="15">
-        <v>0.99920100000000001</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="D38" s="15">
-        <v>0.99809899999999996</v>
+        <v>0.99745700000000004</v>
       </c>
       <c r="E38" s="8">
-        <v>0.420018</v>
+        <v>0.42010199999999998</v>
       </c>
       <c r="F38" s="15">
-        <v>0.60040099999999996</v>
+        <v>0.59209800000000001</v>
       </c>
       <c r="G38" s="3">
-        <v>1.1986129999999999</v>
+        <v>0.81442499999999995</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="21">
@@ -5830,22 +5832,22 @@
         <v>60</v>
       </c>
       <c r="B39" s="8">
-        <v>0.99872700000000003</v>
+        <v>0.99637900000000001</v>
       </c>
       <c r="C39" s="15">
-        <v>0.99815399999999999</v>
+        <v>0.99403799999999998</v>
       </c>
       <c r="D39" s="15">
-        <v>0.996147</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0.63061500000000004</v>
+        <v>0.98608669999999998</v>
+      </c>
+      <c r="E39" s="23">
+        <v>0.61995</v>
       </c>
       <c r="F39" s="15">
-        <v>0.90180199999999999</v>
+        <v>0.82397399999999998</v>
       </c>
       <c r="G39" s="3">
-        <v>1.801671</v>
+        <v>0.87388500000000002</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="21">
@@ -5853,22 +5855,22 @@
         <v>80</v>
       </c>
       <c r="B40" s="8">
-        <v>0.99747699999999995</v>
+        <v>0.99230399999999996</v>
       </c>
       <c r="C40" s="15">
-        <v>0.99672700000000003</v>
+        <v>0.98631400000000002</v>
       </c>
       <c r="D40" s="15">
-        <v>0.99322310000000003</v>
+        <v>0.98931500000000006</v>
       </c>
       <c r="E40" s="8">
-        <v>0.84013499999999997</v>
+        <v>0.78140699999999996</v>
       </c>
       <c r="F40" s="15">
-        <v>1.198401</v>
-      </c>
-      <c r="G40" s="3">
-        <v>2.398466</v>
+        <v>0.92222099999999996</v>
+      </c>
+      <c r="G40" s="22">
+        <v>0.92217000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="22" thickBot="1">
@@ -5876,22 +5878,22 @@
         <v>100</v>
       </c>
       <c r="B41" s="9">
-        <v>0.99615200000000004</v>
+        <v>0.98779899999999998</v>
       </c>
       <c r="C41" s="18">
-        <v>0.99470000000000003</v>
+        <v>0.98825499999999999</v>
       </c>
       <c r="D41" s="18">
-        <v>0.98915900000000001</v>
+        <v>0.98313200000000001</v>
       </c>
       <c r="E41" s="9">
-        <v>1.050063</v>
+        <v>0.90247200000000005</v>
       </c>
       <c r="F41" s="5">
-        <v>1.4999089999999999</v>
+        <v>0.96449300000000004</v>
       </c>
       <c r="G41" s="6">
-        <v>3.0038809999999998</v>
+        <v>0.962565</v>
       </c>
     </row>
   </sheetData>

--- a/Lab2/Lab2_Data.xlsx
+++ b/Lab2/Lab2_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fliang/Labs/ECE358/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4320A7AD-A825-F743-AC58-A7EED0F90CE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601E69C2-A634-804A-A195-B636EA4CD8EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CD3D1FDA-1D36-744E-9399-F59D5B515E4C}"/>
   </bookViews>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,14 +252,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1747,19 +1748,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.99975800000000004</c:v>
+                  <c:v>0.99979300000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99870899999999996</c:v>
+                  <c:v>0.99801600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99637900000000001</c:v>
+                  <c:v>0.98100299999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99230399999999996</c:v>
+                  <c:v>0.92470699999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98779899999999998</c:v>
+                  <c:v>0.851464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1832,19 +1833,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.99965000000000004</c:v>
+                  <c:v>0.99963999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99770000000000003</c:v>
+                  <c:v>0.98659200000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99403799999999998</c:v>
+                  <c:v>0.90898500000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98631400000000002</c:v>
+                  <c:v>0.84872999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98825499999999999</c:v>
+                  <c:v>0.81433299999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,19 +1918,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.99902000000000002</c:v>
+                  <c:v>0.98799199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99745700000000004</c:v>
+                  <c:v>0.92538600000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98608669999999998</c:v>
+                  <c:v>0.88785499999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98931500000000006</c:v>
+                  <c:v>0.84886899999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98313200000000001</c:v>
+                  <c:v>0.81329700000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,7 +2066,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.98"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2412,22 +2413,22 @@
             <c:numRef>
               <c:f>Sheet1!$E$37:$E$41</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.210428</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.20980799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42010199999999998</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.000000">
-                  <c:v>0.61995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78140699999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90247200000000005</c:v>
+                  <c:v>0.41944999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62005100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.78093299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.90350299999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2500,19 +2501,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.29978300000000002</c:v>
+                  <c:v>0.30007800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59209800000000001</c:v>
+                  <c:v>0.59390600000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82397399999999998</c:v>
+                  <c:v>0.82318400000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92222099999999996</c:v>
+                  <c:v>0.92223750000000004</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.96449300000000004</c:v>
+                  <c:v>0.96533899999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2585,19 +2586,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.59347499999999997</c:v>
+                  <c:v>0.593642</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81442499999999995</c:v>
+                  <c:v>0.81279100000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87388500000000002</c:v>
+                  <c:v>0.87451599999999996</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.000000">
-                  <c:v>0.92217000000000005</c:v>
+                  <c:v>0.92112899999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.962565</c:v>
+                  <c:v>0.96559499999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5563,8 +5564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8782A8-5F07-BD40-AC8C-8932D019AA2B}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5576,6 +5577,7 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37" customHeight="1" thickBot="1">
@@ -5584,7 +5586,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -5599,7 +5601,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="22" thickBot="1">
-      <c r="A3" s="21"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
@@ -5740,13 +5742,13 @@
       </c>
       <c r="J8" s="17"/>
     </row>
-    <row r="34" spans="1:7" ht="30" thickBot="1">
+    <row r="34" spans="1:9" ht="30" thickBot="1">
       <c r="A34" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="21">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:9" ht="21">
+      <c r="A35" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -5760,8 +5762,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="22" thickBot="1">
-      <c r="A36" s="21"/>
+    <row r="36" spans="1:9" ht="22" thickBot="1">
+      <c r="A36" s="23"/>
       <c r="B36" s="10" t="s">
         <v>3</v>
       </c>
@@ -5781,119 +5783,123 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="21">
+    <row r="37" spans="1:9" ht="21">
       <c r="A37" s="10">
         <v>20</v>
       </c>
       <c r="B37" s="13">
-        <v>0.99975800000000004</v>
+        <v>0.99979300000000004</v>
       </c>
       <c r="C37" s="16">
-        <v>0.99965000000000004</v>
+        <v>0.99963999999999997</v>
       </c>
       <c r="D37" s="16">
-        <v>0.99902000000000002</v>
+        <v>0.98799199999999998</v>
       </c>
       <c r="E37" s="13">
-        <v>0.210428</v>
+        <v>0.20980799999999999</v>
       </c>
       <c r="F37" s="16">
-        <v>0.29978300000000002</v>
+        <v>0.30007800000000001</v>
       </c>
       <c r="G37" s="14">
-        <v>0.59347499999999997</v>
-      </c>
+        <v>0.593642</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
-    <row r="38" spans="1:7" ht="21">
+    <row r="38" spans="1:9" ht="21">
       <c r="A38" s="10">
         <v>40</v>
       </c>
       <c r="B38" s="8">
-        <v>0.99870899999999996</v>
+        <v>0.99801600000000001</v>
       </c>
       <c r="C38" s="15">
-        <v>0.99770000000000003</v>
+        <v>0.98659200000000002</v>
       </c>
       <c r="D38" s="15">
-        <v>0.99745700000000004</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0.42010199999999998</v>
+        <v>0.92538600000000004</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0.41944999999999999</v>
       </c>
       <c r="F38" s="15">
-        <v>0.59209800000000001</v>
+        <v>0.59390600000000004</v>
       </c>
       <c r="G38" s="3">
-        <v>0.81442499999999995</v>
-      </c>
+        <v>0.81279100000000004</v>
+      </c>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
     </row>
-    <row r="39" spans="1:7" ht="21">
+    <row r="39" spans="1:9" ht="21">
       <c r="A39" s="10">
         <v>60</v>
       </c>
       <c r="B39" s="8">
-        <v>0.99637900000000001</v>
+        <v>0.98100299999999996</v>
       </c>
       <c r="C39" s="15">
-        <v>0.99403799999999998</v>
+        <v>0.90898500000000004</v>
       </c>
       <c r="D39" s="15">
-        <v>0.98608669999999998</v>
-      </c>
-      <c r="E39" s="23">
-        <v>0.61995</v>
+        <v>0.88785499999999995</v>
+      </c>
+      <c r="E39" s="21">
+        <v>0.62005100000000002</v>
       </c>
       <c r="F39" s="15">
-        <v>0.82397399999999998</v>
+        <v>0.82318400000000003</v>
       </c>
       <c r="G39" s="3">
-        <v>0.87388500000000002</v>
+        <v>0.87451599999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="21">
+    <row r="40" spans="1:9" ht="21">
       <c r="A40" s="10">
         <v>80</v>
       </c>
       <c r="B40" s="8">
-        <v>0.99230399999999996</v>
+        <v>0.92470699999999995</v>
       </c>
       <c r="C40" s="15">
-        <v>0.98631400000000002</v>
+        <v>0.84872999999999998</v>
       </c>
       <c r="D40" s="15">
-        <v>0.98931500000000006</v>
+        <v>0.84886899999999998</v>
       </c>
       <c r="E40" s="8">
-        <v>0.78140699999999996</v>
+        <v>0.78093299999999999</v>
       </c>
       <c r="F40" s="15">
-        <v>0.92222099999999996</v>
-      </c>
-      <c r="G40" s="22">
-        <v>0.92217000000000005</v>
+        <v>0.92223750000000004</v>
+      </c>
+      <c r="G40" s="20">
+        <v>0.92112899999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="22" thickBot="1">
+    <row r="41" spans="1:9" ht="22" thickBot="1">
       <c r="A41" s="4">
         <v>100</v>
       </c>
       <c r="B41" s="9">
-        <v>0.98779899999999998</v>
+        <v>0.851464</v>
       </c>
       <c r="C41" s="18">
-        <v>0.98825499999999999</v>
+        <v>0.81433299999999997</v>
       </c>
       <c r="D41" s="18">
-        <v>0.98313200000000001</v>
+        <v>0.81329700000000005</v>
       </c>
       <c r="E41" s="9">
-        <v>0.90247200000000005</v>
+        <v>0.90350299999999995</v>
       </c>
       <c r="F41" s="5">
-        <v>0.96449300000000004</v>
+        <v>0.96533899999999995</v>
       </c>
       <c r="G41" s="6">
-        <v>0.962565</v>
+        <v>0.96559499999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Lab2/Lab2_Data.xlsx
+++ b/Lab2/Lab2_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fliang/Labs/ECE358/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601E69C2-A634-804A-A195-B636EA4CD8EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF4B0EC-0B8F-B741-ADE4-14DEE4CC1914}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CD3D1FDA-1D36-744E-9399-F59D5B515E4C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{CD3D1FDA-1D36-744E-9399-F59D5B515E4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,13 +254,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1748,19 +1748,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.99979300000000004</c:v>
+                  <c:v>0.99972099999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99801600000000001</c:v>
+                  <c:v>0.99789899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.98100299999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92470699999999995</c:v>
+                  <c:v>0.90435600000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.851464</c:v>
+                  <c:v>0.80302700000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,19 +1833,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.99963999999999997</c:v>
+                  <c:v>0.99964500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98659200000000002</c:v>
+                  <c:v>0.98540099999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90898500000000004</c:v>
+                  <c:v>0.88392499999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84872999999999998</c:v>
+                  <c:v>0.83701899999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81433299999999997</c:v>
+                  <c:v>0.79512899999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,19 +1918,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.98799199999999998</c:v>
+                  <c:v>0.98769799999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.92538600000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88785499999999995</c:v>
+                  <c:v>0.88050200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84886899999999998</c:v>
+                  <c:v>0.84025187000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81329700000000005</c:v>
+                  <c:v>0.796315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,19 +2416,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.20980799999999999</c:v>
+                  <c:v>0.20979800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41944999999999999</c:v>
+                  <c:v>0.42028700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62005100000000002</c:v>
+                  <c:v>0.618309</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0.78093299999999999</c:v>
+                  <c:v>0.76642399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.90350299999999995</c:v>
+                  <c:v>0.84129600000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2501,19 +2501,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.30007800000000001</c:v>
+                  <c:v>0.30018600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59390600000000004</c:v>
+                  <c:v>0.59215899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82318400000000003</c:v>
+                  <c:v>0.79718999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92223750000000004</c:v>
+                  <c:v>0.82762999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.96533899999999995</c:v>
+                  <c:v>0.84592500000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2586,19 +2586,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.593642</c:v>
+                  <c:v>0.59310799999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81279100000000004</c:v>
+                  <c:v>0.77066299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87451599999999996</c:v>
+                  <c:v>0.80373799999999995</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.000000">
-                  <c:v>0.92112899999999998</c:v>
+                  <c:v>0.82965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96559499999999998</c:v>
+                  <c:v>0.84663100000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5564,8 +5564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8782A8-5F07-BD40-AC8C-8932D019AA2B}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5586,7 +5586,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -5601,7 +5601,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="22" thickBot="1">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
@@ -5748,7 +5748,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="21">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -5763,7 +5763,7 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="22" thickBot="1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="10" t="s">
         <v>3</v>
       </c>
@@ -5788,50 +5788,50 @@
         <v>20</v>
       </c>
       <c r="B37" s="13">
-        <v>0.99979300000000004</v>
+        <v>0.99972099999999997</v>
       </c>
       <c r="C37" s="16">
-        <v>0.99963999999999997</v>
+        <v>0.99964500000000001</v>
       </c>
       <c r="D37" s="16">
-        <v>0.98799199999999998</v>
+        <v>0.98769799999999996</v>
       </c>
       <c r="E37" s="13">
-        <v>0.20980799999999999</v>
+        <v>0.20979800000000001</v>
       </c>
       <c r="F37" s="16">
-        <v>0.30007800000000001</v>
+        <v>0.30018600000000001</v>
       </c>
       <c r="G37" s="14">
-        <v>0.593642</v>
-      </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+        <v>0.59310799999999997</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9" ht="21">
       <c r="A38" s="10">
         <v>40</v>
       </c>
       <c r="B38" s="8">
-        <v>0.99801600000000001</v>
+        <v>0.99789899999999998</v>
       </c>
       <c r="C38" s="15">
-        <v>0.98659200000000002</v>
+        <v>0.98540099999999997</v>
       </c>
       <c r="D38" s="15">
         <v>0.92538600000000004</v>
       </c>
       <c r="E38" s="21">
-        <v>0.41944999999999999</v>
+        <v>0.42028700000000002</v>
       </c>
       <c r="F38" s="15">
-        <v>0.59390600000000004</v>
+        <v>0.59215899999999999</v>
       </c>
       <c r="G38" s="3">
-        <v>0.81279100000000004</v>
-      </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+        <v>0.77066299999999999</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:9" ht="21">
       <c r="A39" s="10">
@@ -5841,19 +5841,19 @@
         <v>0.98100299999999996</v>
       </c>
       <c r="C39" s="15">
-        <v>0.90898500000000004</v>
+        <v>0.88392499999999996</v>
       </c>
       <c r="D39" s="15">
-        <v>0.88785499999999995</v>
+        <v>0.88050200000000001</v>
       </c>
       <c r="E39" s="21">
-        <v>0.62005100000000002</v>
+        <v>0.618309</v>
       </c>
       <c r="F39" s="15">
-        <v>0.82318400000000003</v>
+        <v>0.79718999999999995</v>
       </c>
       <c r="G39" s="3">
-        <v>0.87451599999999996</v>
+        <v>0.80373799999999995</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="21">
@@ -5861,22 +5861,22 @@
         <v>80</v>
       </c>
       <c r="B40" s="8">
-        <v>0.92470699999999995</v>
+        <v>0.90435600000000005</v>
       </c>
       <c r="C40" s="15">
-        <v>0.84872999999999998</v>
+        <v>0.83701899999999996</v>
       </c>
       <c r="D40" s="15">
-        <v>0.84886899999999998</v>
+        <v>0.84025187000000001</v>
       </c>
       <c r="E40" s="8">
-        <v>0.78093299999999999</v>
+        <v>0.76642399999999999</v>
       </c>
       <c r="F40" s="15">
-        <v>0.92223750000000004</v>
+        <v>0.82762999999999998</v>
       </c>
       <c r="G40" s="20">
-        <v>0.92112899999999998</v>
+        <v>0.82965</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="22" thickBot="1">
@@ -5884,22 +5884,22 @@
         <v>100</v>
       </c>
       <c r="B41" s="9">
-        <v>0.851464</v>
+        <v>0.80302700000000005</v>
       </c>
       <c r="C41" s="18">
-        <v>0.81433299999999997</v>
+        <v>0.79512899999999997</v>
       </c>
       <c r="D41" s="18">
-        <v>0.81329700000000005</v>
+        <v>0.796315</v>
       </c>
       <c r="E41" s="9">
-        <v>0.90350299999999995</v>
+        <v>0.84129600000000004</v>
       </c>
       <c r="F41" s="5">
-        <v>0.96533899999999995</v>
+        <v>0.84592500000000004</v>
       </c>
       <c r="G41" s="6">
-        <v>0.96559499999999998</v>
+        <v>0.84663100000000002</v>
       </c>
     </row>
   </sheetData>
